--- a/src/main/webapp/content/templates/report-stock-out-take-over.xlsx
+++ b/src/main/webapp/content/templates/report-stock-out-take-over.xlsx
@@ -1,34 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhuyu/IdeaProjects/nccd/BioBank/src/main/webapp/content/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\application\BioBank\src\main\webapp\content\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16700" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16695"/>
   </bookViews>
   <sheets>
     <sheet name="交接单" sheetId="1" r:id="rId1"/>
     <sheet name="明细" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>签字</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -132,10 +132,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>临时盒编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>交接样本明细</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -161,13 +157,25 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冻存盒编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一维编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
@@ -431,7 +439,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -489,79 +497,37 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -597,71 +563,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -672,11 +578,110 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -958,257 +963,279 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:K15"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" style="1"/>
+    <col min="4" max="4" width="10.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.875" style="1"/>
     <col min="6" max="6" width="4.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.375" style="1" customWidth="1"/>
     <col min="8" max="8" width="12" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.83203125" style="1"/>
-    <col min="10" max="10" width="11.6640625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.83203125" style="1"/>
+    <col min="9" max="9" width="8.875" style="1"/>
+    <col min="10" max="10" width="11.625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="33"/>
-    </row>
-    <row r="2" spans="1:11" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="38"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="43"/>
-    </row>
-    <row r="3" spans="1:11" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="40"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="45"/>
-    </row>
-    <row r="4" spans="1:11" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
+    <row r="1" spans="1:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="29"/>
+    </row>
+    <row r="2" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="27"/>
+    </row>
+    <row r="3" spans="1:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="24"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="31"/>
+    </row>
+    <row r="4" spans="1:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
       <c r="H4" s="14"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="33"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="29"/>
       <c r="K4" s="10"/>
     </row>
-    <row r="5" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="20"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="31"/>
+    <row r="5" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="55"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="66"/>
       <c r="H5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-    </row>
-    <row r="6" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="20"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="31"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+    </row>
+    <row r="6" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="55"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="66"/>
       <c r="H6" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="80"/>
-      <c r="J6" s="81"/>
-    </row>
-    <row r="7" spans="1:11" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="21"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="26"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="63"/>
+    </row>
+    <row r="7" spans="1:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="56"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="61"/>
       <c r="H7" s="9"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="35"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="68"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="58"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="42"/>
       <c r="H8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="59"/>
-      <c r="J8" s="60"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="49"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="56"/>
-      <c r="C9" s="58"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="42"/>
       <c r="D9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="56"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="58"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="42"/>
       <c r="H9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="56"/>
-      <c r="J9" s="58"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="42"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="61"/>
-      <c r="C10" s="62"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="42"/>
       <c r="D10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="56"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="65"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="52"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="41"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="42"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
-    </row>
-    <row r="12" spans="1:11" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="77"/>
-      <c r="B12" s="78"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="78"/>
-      <c r="J12" s="79"/>
-    </row>
-    <row r="13" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="46" t="s">
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+    </row>
+    <row r="13" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="43"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="45"/>
+    </row>
+    <row r="14" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="3" t="s">
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="3" t="s">
+      <c r="H14" s="8"/>
+      <c r="I14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="8"/>
-    </row>
-    <row r="14" spans="1:11" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="49"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="3" t="s">
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" spans="1:11" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="35"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="3" t="s">
+      <c r="H15" s="4"/>
+      <c r="I15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="1:11" s="5" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="52"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="7" t="s">
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="1:11" s="5" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="38"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H15" s="8"/>
-      <c r="I15" s="7" t="s">
+      <c r="H16" s="8"/>
+      <c r="I16" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="J15" s="8"/>
+      <c r="J16" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="24">
+    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B5:G6"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I7:J7"/>
     <mergeCell ref="A1:F3"/>
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="G3:J3"/>
-    <mergeCell ref="A13:F15"/>
+    <mergeCell ref="A14:F16"/>
     <mergeCell ref="B9:C9"/>
+    <mergeCell ref="A13:J13"/>
     <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A11:J11"/>
     <mergeCell ref="E9:G9"/>
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="B8:G8"/>
@@ -1217,13 +1244,6 @@
     <mergeCell ref="E10:G10"/>
     <mergeCell ref="H10:J10"/>
     <mergeCell ref="I5:J5"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B5:G6"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1233,123 +1253,130 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:I5"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7" style="11" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="5.5" style="12" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" style="12" customWidth="1"/>
-    <col min="5" max="7" width="5.1640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.1640625" style="13" customWidth="1"/>
-    <col min="9" max="9" width="17" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.25" style="11" customWidth="1"/>
+    <col min="3" max="3" width="14.125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="5.5" style="12" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="12" customWidth="1"/>
+    <col min="6" max="8" width="5.125" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.125" style="13" customWidth="1"/>
+    <col min="10" max="10" width="17" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="28"/>
-    </row>
-    <row r="2" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="69"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="74"/>
-    </row>
-    <row r="3" spans="1:9" s="6" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="71"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="76"/>
-    </row>
-    <row r="4" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="76"/>
+    </row>
+    <row r="2" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="71"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="78"/>
+    </row>
+    <row r="3" spans="1:10" s="6" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="73"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="80"/>
+    </row>
+    <row r="4" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>25</v>
+      <c r="B4" s="17" t="s">
+        <v>33</v>
       </c>
       <c r="C4" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="E4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="F4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="G4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="H4" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="I4" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="J4" s="18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>28</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>30</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>29</v>
       </c>
       <c r="E5" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="12" t="s">
         <v>31</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A1:G3"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A1:H3"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I3:J3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/webapp/content/templates/report-stock-out-take-over.xlsx
+++ b/src/main/webapp/content/templates/report-stock-out-take-over.xlsx
@@ -439,7 +439,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -500,6 +500,66 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -522,12 +582,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -564,12 +618,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -581,19 +629,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -602,86 +647,44 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -986,197 +989,197 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="29"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="37"/>
     </row>
     <row r="2" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="22"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="27"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="47"/>
     </row>
     <row r="3" spans="1:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="31"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="49"/>
     </row>
     <row r="4" spans="1:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
       <c r="H4" s="14"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="29"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="37"/>
       <c r="K4" s="10"/>
     </row>
     <row r="5" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="55"/>
-      <c r="B5" s="64"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="66"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="35"/>
       <c r="H5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
     </row>
     <row r="6" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="55"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="66"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="35"/>
       <c r="H6" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="62"/>
-      <c r="J6" s="63"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="32"/>
     </row>
     <row r="7" spans="1:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="56"/>
-      <c r="B7" s="59"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="61"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="30"/>
       <c r="H7" s="9"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="68"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="39"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="42"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="22"/>
       <c r="H8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="48"/>
-      <c r="J8" s="49"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="64"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="42"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="22"/>
       <c r="D9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="41"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="42"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="22"/>
       <c r="H9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="41"/>
-      <c r="J9" s="42"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="22"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="42"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="22"/>
       <c r="D10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="41"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="52"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="67"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="42"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="22"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="62"/>
     </row>
     <row r="13" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="43"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="45"/>
+      <c r="A13" s="59"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="61"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="34"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="52"/>
       <c r="G14" s="3" t="s">
         <v>13</v>
       </c>
@@ -1187,12 +1190,12 @@
       <c r="J14" s="8"/>
     </row>
     <row r="15" spans="1:11" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="35"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="37"/>
+      <c r="A15" s="53"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="55"/>
       <c r="G15" s="3" t="s">
         <v>14</v>
       </c>
@@ -1203,12 +1206,12 @@
       <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:11" s="5" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="38"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="40"/>
+      <c r="A16" s="56"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="58"/>
       <c r="G16" s="7" t="s">
         <v>0</v>
       </c>
@@ -1220,14 +1223,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B11:J11"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B5:G6"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I7:J7"/>
     <mergeCell ref="A1:F3"/>
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="G1:J1"/>
@@ -1244,6 +1239,14 @@
     <mergeCell ref="E10:G10"/>
     <mergeCell ref="H10:J10"/>
     <mergeCell ref="I5:J5"/>
+    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B5:G6"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1257,13 +1260,13 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B1:B1048576"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7" style="11" customWidth="1"/>
-    <col min="2" max="2" width="14.25" style="11" customWidth="1"/>
+    <col min="2" max="2" width="14.25" style="81" customWidth="1"/>
     <col min="3" max="3" width="14.125" style="12" customWidth="1"/>
     <col min="4" max="4" width="5.5" style="12" customWidth="1"/>
     <col min="5" max="5" width="15.625" style="12" customWidth="1"/>
@@ -1314,7 +1317,7 @@
       <c r="A4" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="18" t="s">
         <v>33</v>
       </c>
       <c r="C4" s="18" t="s">
